--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20750" windowHeight="10480"/>
+    <workbookView windowWidth="16850" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Malware</t>
   </si>
@@ -192,15 +192,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Navie Bayes</t>
-    </r>
+    <t>Naive Bayes</t>
   </si>
   <si>
     <r>
@@ -227,16 +219,23 @@
   <si>
     <t>EMBER</t>
   </si>
+  <si>
+    <t>IoT-23</t>
+  </si>
+  <si>
+    <t>Malevis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -406,13 +405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,29 +879,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1221,8 +1229,8 @@
   <sheetPr/>
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1256,52 +1264,52 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="6"/>
+      <c r="R2" s="9"/>
       <c r="S2" t="s">
         <v>8</v>
       </c>
@@ -1310,52 +1318,52 @@
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>0.981666</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>0.968531</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>0.955715</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>0.982566</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>0.986044</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>0.986324</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <v>0.986363</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
         <v>0.989743</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="5">
         <v>0.983012</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="5">
         <v>0.995252</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="5">
         <v>0.998536</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="5">
         <v>0.99852</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="5">
         <v>0.997191</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="5">
         <v>0.999861</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="5">
         <v>0.998803</v>
       </c>
-      <c r="R3" s="7"/>
+      <c r="R3" s="10"/>
       <c r="S3" t="s">
         <v>10</v>
       </c>
@@ -1364,52 +1372,52 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>0.979072</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>0.964021</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>0.950948</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>0.978565</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>0.994885</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>0.983562</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>0.98347</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="5">
         <v>0.978302</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <v>0.988714</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="5">
         <v>0.997616</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="5">
         <v>0.99845</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="5">
         <v>0.998434</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="5">
         <v>0.997746</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="5">
         <v>0.999132</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="5">
         <v>0.99982</v>
       </c>
-      <c r="R4" s="8"/>
+      <c r="R4" s="11"/>
       <c r="S4" t="s">
         <v>12</v>
       </c>
@@ -1418,49 +1426,49 @@
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>0.972785</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>0.953163</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>0.940543</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>0.967901</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>0.992234</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>0.979814</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>0.979828</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="5">
         <v>0.980274</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="5">
         <v>0.979411</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="5">
         <v>0.995957</v>
       </c>
       <c r="L5" s="5">
         <v>0.998054</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="7">
         <v>0.998033</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="7">
         <v>0.996913</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="7">
         <v>0.999166</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="7">
         <v>0.999853</v>
       </c>
     </row>
@@ -1468,49 +1476,49 @@
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>0.978848</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>0.963595</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>0.949133</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>0.979583</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>0.986973</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>0.975013</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>0.974581</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="5">
         <v>0.958707</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="5">
         <v>0.99102</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="5">
         <v>0.997233</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="5">
         <v>0.998398</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="5">
         <v>0.998382</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="5">
         <v>0.997468</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="5">
         <v>0.999305</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="5">
         <v>0.99992</v>
       </c>
     </row>
@@ -1518,49 +1526,49 @@
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>0.989395</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>0.982182</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>0.983165</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>0.981214</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>0.998731</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>0.9857</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>0.980992</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="5">
         <v>0.977797</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="5">
         <v>0.984221</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="5">
         <v>0.997768</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="5">
         <v>0.999518</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="5">
         <v>0.999509</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="5">
         <v>0.999614</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="5">
         <v>0.999404</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="5">
         <v>0.999999</v>
       </c>
     </row>
@@ -1568,49 +1576,49 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>0.984491</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>0.973975</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>0.976051</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>0.971922</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>0.997123</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>0.751247</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
         <v>0.645195</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="5">
         <v>0.734978</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="5">
         <v>0.612503</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="5">
         <v>0.780853</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="7">
         <v>0.994781</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="7">
         <v>0.994679</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="7">
         <v>0.993406</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="7">
         <v>0.995957</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="7">
         <v>0.999166</v>
       </c>
     </row>
@@ -1618,49 +1626,49 @@
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>0.983882</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>0.972216</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>0.957627</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>0.988192</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>0.997964</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <v>0.990269</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>0.990201</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="5">
         <v>0.986062</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="5">
         <v>0.994432</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="7">
         <v>0.999069</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="7">
         <v>0.99876</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="7">
         <v>0.998746</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="7">
         <v>0.997572</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="7">
         <v>0.999931</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="7">
         <v>0.999303</v>
       </c>
     </row>
@@ -1668,49 +1676,49 @@
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>0.982296</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>0.969862</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>0.958789</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>0.981644</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>0.998077</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <v>0.958772</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="5">
         <v>0.958592</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="5">
         <v>0.954499</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="5">
         <v>0.962786</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="5">
         <v>0.993491</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="7">
         <v>0.998536</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="7">
         <v>0.99852</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="7">
         <v>0.997295</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="7">
         <v>0.999756</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="7">
         <v>0.99926</v>
       </c>
     </row>
@@ -1718,49 +1726,49 @@
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>0.917955</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>0.835666</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>0.74068</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>0.980114</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>0.990993</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="5">
         <v>0.757496</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="5">
         <v>0.802655</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="5">
         <v>0.986324</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="5">
         <v>0.676666</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="5">
         <v>0.76261</v>
       </c>
       <c r="L11" s="5">
         <v>0.990647</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="5">
         <v>0.990613</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="7">
         <v>0.994451</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="5">
         <v>0.986816</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="5">
         <v>0.99475</v>
       </c>
     </row>
@@ -1768,49 +1776,49 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>0.975327</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>0.956894</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>0.932991</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>0.983698</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>0.963303</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>0.979288</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="5">
         <v>0.979297</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="5">
         <v>0.981328</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="5">
         <v>0.9774</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="5">
         <v>0.979675</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="7">
         <v>0.998433</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="7">
         <v>0.998416</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="7">
         <v>0.99726</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="7">
         <v>0.999584</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="7">
         <v>0.998425</v>
       </c>
     </row>
@@ -1818,53 +1826,70 @@
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>0.982557</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>0.969909</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>0.953973</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>0.987342</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>0.998406</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>0.990729</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5">
         <v>0.990712</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="5">
         <v>0.989875</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="5">
         <v>0.991569</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="5">
         <v>0.999227</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="5">
         <v>0.998605</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="5">
         <v>0.998589</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="5">
         <v>0.99733</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="5">
         <v>0.999861</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="5">
         <v>0.999764</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="14" spans="2:16">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>22</v>
@@ -1873,251 +1898,603 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>0.971002</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>0.968406</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>0.955427</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>0.981805</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>0.985434</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="5">
+        <v>0.878434792748759</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.934394761231047</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.980663555115987</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.892616637242685</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.5040703626772</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.916</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.895720968719846</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.88477957830712</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.927325472605672</v>
+      </c>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
         <v>0.972082</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>0.969118</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>0.941672</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <v>0.998234</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>0.988597</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="5">
+        <v>0.885</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.93899204</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.885</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.915934065934065</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.917855602924604</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.912916942582271</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.930396028226449</v>
+      </c>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>0.979339</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>0.97727</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>0.955598</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="5">
+        <v>0.983501281666666</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.888224422715151</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.940636554194676</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.999619169228873</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.888226663537085</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.511470441386647</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.934615384615384</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.934023673476578</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.934615384615384</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.937374065644356</v>
+      </c>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <v>0.964002</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>0.959876</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>0.926015</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <v>0.99637</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>0.987813</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="5">
+        <v>0.907241950924727</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.944403334965061</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.943450589819164</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.953650920460126</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.769107278475478</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.808241758241758</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.828783162534189</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.802177862355397</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.93888949355424</v>
+      </c>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <v>0.976442</v>
       </c>
       <c r="C21" s="5">
         <v>0.975975</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>0.953607</v>
       </c>
       <c r="E21" s="5">
         <v>0.999419</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <v>0.992793</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="5">
+        <v>0.999949</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.999971</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.999978</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.999964</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.999987</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.891868131868131</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.908049730428727</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.891868131868131</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.925329930690569</v>
+      </c>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
         <v>0.961489</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>0.956513</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>0.920245</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <v>0.996583</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>0.982297</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="7">
+        <v>0.999816</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.999896</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.999937</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.999855</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.999953</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.902197802197802</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.919974792187131</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.902197802197802</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.938494533116586</v>
+      </c>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="5">
         <v>0.984025</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <v>0.982581</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>0.968794</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <v>0.996799</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="5">
         <v>0.994568</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="8">
+        <v>0.888321133974445</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.94058727880643</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.997648666544328</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.889708214865672</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0.49267396022659</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.928296703296703</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.930461962147546</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.928770597382942</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0.935977869113068</v>
+      </c>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="5">
         <v>0.979647</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <v>0.977621</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <v>0.95636</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <v>0.999896</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="5">
         <v>0.992091</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="5">
+        <v>0.909095208913475</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.946982999558285</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.951959849658673</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.950006053782743</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.891945750821878</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.928</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.902127942749791</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.886096341498883</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.939658389574481</v>
+      </c>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
         <v>0.979395</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <v>0.977334</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>0.95572</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="5">
         <v>0.988456</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="5">
+        <v>0.886083190567784</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.939601386618582</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.945663</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.886083190567784</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.439024322021103</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.794</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.772842152716632</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.764164907946687</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.832478897270601</v>
+      </c>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="5">
         <v>0.972913</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <v>0.97102</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <v>0.974393</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="5">
         <v>0.967716</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="5">
         <v>0.973066</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="8">
+        <v>0.88819345933887</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.940516601911806</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.997526415115453</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.889677986105694</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0.417385984759886</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0.850907700300933</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0.841327032616757</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.866411547567198</v>
+      </c>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="5">
         <v>0.982725</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="5">
         <v>0.98111</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="5">
         <v>0.964592</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="5">
         <v>0.998225</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="5">
         <v>0.994918</v>
       </c>
+      <c r="G27" s="5">
+        <v>0.93489389340756</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.965089926403144</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.997170112429093</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.936125459233483</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.838602430083762</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.958</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.947225914021046</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.938175303026997</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.96225425673955</v>
+      </c>
+      <c r="P27" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
